--- a/data/trans_bre/P07B_R2_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R2_2023-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-2.179904555223788</v>
+        <v>-2.179904555223766</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.02329097038696792</v>
+        <v>-0.02329097038696768</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.521081025176102</v>
+        <v>-4.499214939634132</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.04799111895142103</v>
+        <v>-0.04771066249064726</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5156265119841942</v>
+        <v>0.471179683415858</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.004512684488076318</v>
+        <v>0.005112946456705632</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.643539307328671</v>
+        <v>-6.469918025263643</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06885075207381938</v>
+        <v>-0.06730034873701952</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.556131190508282</v>
+        <v>-2.788001515760465</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02705055841027363</v>
+        <v>-0.02972120528814112</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.938024225711254</v>
+        <v>-5.101255607716062</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.05211019952038078</v>
+        <v>-0.05382036717495466</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2537536070908439</v>
+        <v>0.4273993416369413</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.00279186893969349</v>
+        <v>0.004381381033543215</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.145452019022779</v>
+        <v>-5.976154454957595</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06577128003732897</v>
+        <v>-0.06397722881741795</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.296491591165585</v>
+        <v>-0.9810905507155669</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01425501894625289</v>
+        <v>-0.01089060528608645</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-3.428283956869549</v>
+        <v>-3.428283956869582</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.03655984231113796</v>
+        <v>-0.0365598423111383</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.580640164478255</v>
+        <v>-4.638346241410511</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.04840583447801953</v>
+        <v>-0.04928957125177483</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.217086967032503</v>
+        <v>-2.29189929871725</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.02380403473532269</v>
+        <v>-0.02465599441948865</v>
       </c>
     </row>
     <row r="19">
